--- a/LAB_20200622_0_Dispenser/LAB_20200622_0_Dispenser.xlsx
+++ b/LAB_20200622_0_Dispenser/LAB_20200622_0_Dispenser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a59c1bdb761853cd/NAER/EELAB/EELAB/LAB_20200622_0_Dispenser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9650B604-6184-45AF-8040-C9F81EE41EED}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{748D823E-D4F0-4D7E-9908-FE9918E8E270}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1296" yWindow="276" windowWidth="15408" windowHeight="12084" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDiagram" sheetId="1" r:id="rId1"/>
@@ -2144,16 +2144,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2168,7 +2168,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4495800" y="3101340"/>
+          <a:off x="9608820" y="3124200"/>
           <a:ext cx="533400" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2204,16 +2204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2228,7 +2228,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6560820" y="3124200"/>
+          <a:off x="11673840" y="3147060"/>
           <a:ext cx="533400" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2264,16 +2264,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2288,7 +2288,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5074920" y="3337560"/>
+          <a:off x="10187940" y="3360420"/>
           <a:ext cx="1424940" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2317,16 +2317,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2341,7 +2341,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5074920" y="3520440"/>
+          <a:off x="10187940" y="3543300"/>
           <a:ext cx="1447800" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2370,10 +2370,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1144159" cy="275909"/>
     <xdr:sp macro="" textlink="">
@@ -2389,7 +2389,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5219700" y="3070860"/>
+          <a:off x="10332720" y="3093720"/>
           <a:ext cx="1144159" cy="275909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2441,10 +2441,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1144159" cy="275909"/>
     <xdr:sp macro="" textlink="">
@@ -2460,7 +2460,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5219700" y="3543300"/>
+          <a:off x="10332720" y="3566160"/>
           <a:ext cx="1144159" cy="275909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2512,9 +2512,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1708416" cy="275909"/>
@@ -2531,7 +2531,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="952500"/>
+          <a:off x="1691640" y="1714500"/>
           <a:ext cx="1708416" cy="275909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2569,7 +2569,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>連續出水</a:t>
+            <a:t>連續供水</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
@@ -2583,10 +2583,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="275909"/>
     <xdr:sp macro="" textlink="">
@@ -2602,7 +2602,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1645920" y="1905000"/>
+          <a:off x="6156960" y="2354580"/>
           <a:ext cx="1313180" cy="275909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2633,6 +2633,472 @@
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
             <a:t>設定出水時間長度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2217145" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF53424C-5232-46EA-AE42-D428150C9A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546860" y="2590800"/>
+          <a:ext cx="2217145" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>檢查</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>連續</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鍵是否按下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>上緣觸發</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文字方塊 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D76582-0C90-447F-B093-0B836E31C9E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1043940" y="4160520"/>
+          <a:ext cx="748923" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US"/>
+            <a:t>一般供水</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文字方塊 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B066D04-F3BD-4B99-93B6-0955508AA5D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3291840" y="4191000"/>
+          <a:ext cx="748923" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US"/>
+            <a:t>連續供水</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2217145" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文字方塊 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE02921C-BC8F-4EB7-9EDF-47D49BE65409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546860" y="2887980"/>
+          <a:ext cx="2217145" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>檢查</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>出水</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鍵是否按下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>上緣觸發</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文字方塊 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B596779-128E-4DF9-9BFE-C6AA557FBF33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="4739640"/>
+          <a:ext cx="466794" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>供水</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文字方塊 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3739494F-BD0E-40CE-A088-849EA57172C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="4709160"/>
+          <a:ext cx="748923" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>停止供水</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文字方塊 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A43AC9-4378-4346-8CFB-1D186CC596F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1882140" y="5814060"/>
+          <a:ext cx="1031051" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US"/>
+            <a:t>紀錄按鍵狀態</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2989,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAAB7E6-D1C5-4163-8B6E-601D8518EFE8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3005,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73A6051-291B-495D-A6CC-4CC1DF5BC627}">
   <dimension ref="A5:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3411,6 +3877,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LAB_20200622_0_Dispenser/LAB_20200622_0_Dispenser.xlsx
+++ b/LAB_20200622_0_Dispenser/LAB_20200622_0_Dispenser.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a59c1bdb761853cd/NAER/EELAB/EELAB/LAB_20200622_0_Dispenser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{748D823E-D4F0-4D7E-9908-FE9918E8E270}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB137E91-577A-471A-888C-011A1F12950F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1296" yWindow="276" windowWidth="15408" windowHeight="12084" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDiagram" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表4" sheetId="5" r:id="rId2"/>
-    <sheet name="Pins" sheetId="4" r:id="rId3"/>
-    <sheet name="Driver" sheetId="3" r:id="rId4"/>
-    <sheet name="採買" sheetId="2" r:id="rId5"/>
+    <sheet name="KEYPAD" sheetId="6" r:id="rId2"/>
+    <sheet name="工作表4" sheetId="5" r:id="rId3"/>
+    <sheet name="Pins" sheetId="4" r:id="rId4"/>
+    <sheet name="Driver" sheetId="3" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="7" r:id="rId6"/>
+    <sheet name="工作表3" sheetId="9" r:id="rId7"/>
+    <sheet name="採買" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -452,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,8 +470,16 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +534,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -536,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -550,12 +567,19 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -688,7 +712,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t> Driver</a:t>
+            <a:t>AMP Driver</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1330,9 +1354,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="866840" cy="297180"/>
     <xdr:sp macro="" textlink="">
@@ -1348,7 +1372,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4899660" y="1866900"/>
+          <a:off x="4876800" y="1965960"/>
           <a:ext cx="866840" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1377,12 +1401,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW"/>
-            <a:t>MOFET VGS</a:t>
+            <a:rPr lang="zh-TW" altLang="en-US"/>
+            <a:t>幫浦啟動</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2137,10 +2158,134 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866840" cy="297180"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="文字方塊 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B510E0A8-269A-4C18-A65C-17F75B30F436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="1935480"/>
+          <a:ext cx="866840" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US"/>
+            <a:t>按鍵輸入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB07E5F-0C37-4183-99D8-2907341A931F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1950720" y="1059180"/>
+          <a:ext cx="7185660" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3108,7 +3253,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3171,6 +3316,4054 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>96338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>262346</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99604</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364062F1-9150-4511-8616-0A0EBF8C8F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7554958" y="4039416"/>
+          <a:ext cx="384266" cy="499110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323306</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265612</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C1399C-1F63-4EFD-8F68-030413C068FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7560401" y="3031399"/>
+          <a:ext cx="384266" cy="494756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9939</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線接點 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70B37BB-ABF7-4B16-A4FE-1176B36C8874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7744239" y="1206776"/>
+          <a:ext cx="947" cy="1891842"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>539932</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>94161</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="橢圓 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D945E5B-C6EA-4129-B44A-BEC188BD603C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7242810" y="3267346"/>
+          <a:ext cx="1031422" cy="1017815"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768672" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文字方塊 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1145313-2DB4-4AD2-867A-C21C7F95AF19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7387590" y="3567793"/>
+          <a:ext cx="768672" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+            <a:t>PUMP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406464</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>168019</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63303</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="橢圓 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2F2D1F-FC47-40BE-A7E4-9957FD959F23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7588314" y="942586"/>
+          <a:ext cx="314005" cy="263717"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9041</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19595</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53883</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線接點 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DB5468-4B8D-48D0-8C15-D569ADB227A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743341" y="4488724"/>
+          <a:ext cx="10554" cy="899159"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>117566</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>18507</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線接點 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D48324D-9762-440E-BB9D-73970A5FB4D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7299416" y="5384619"/>
+          <a:ext cx="453391" cy="377733"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>11975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線接點 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AF53C4-52FC-48C2-9FF5-8B4062EE2369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7631975" y="6042114"/>
+          <a:ext cx="9796" cy="1643200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408637</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>149565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>126020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>150616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線接點 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A15DE2E-DEAB-4595-B719-B62F03F33107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7484351" y="7791336"/>
+          <a:ext cx="261669" cy="1051"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347030</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219442</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>13005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線接點 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FF9B57-E2E8-4EFA-8416-7262327BA9E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7422744" y="7653988"/>
+          <a:ext cx="416698" cy="788"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>477033</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>70966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59453</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>70966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線接點 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A6E9CF-62DA-4DF7-BD32-E06ECA10AC0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7552747" y="7908680"/>
+          <a:ext cx="126706" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>410073</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352955</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="圖片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871D9EDB-82AE-4C6D-B9F8-9FD37EF60192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8144373" y="2558603"/>
+          <a:ext cx="1047782" cy="784718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>62794</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>41221</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1255728" cy="593304"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文字方塊 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DE3F55-A46F-47F5-BBAF-C77ABFC7E1A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7267158" y="429148"/>
+          <a:ext cx="1255728" cy="593304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="3200" b="1"/>
+            <a:t>7~12V</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="3200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>296486</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>509898</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="圖片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC366F8-3CAE-4852-8B7D-FE3F9437B00D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1959031" y="4286250"/>
+          <a:ext cx="3538503" cy="2668883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>337704</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>64076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>429490</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線單箭頭接點 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9188DB23-4620-469D-80DA-128A1D9B3A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5325340" y="5495058"/>
+          <a:ext cx="1754332" cy="5196"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133599</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="680571" cy="655885"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="文字方塊 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61C645D-BC83-4615-A695-851AB3B37D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629893" y="4788726"/>
+          <a:ext cx="680571" cy="655885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="3600"/>
+            <a:t>5V</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>471056</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>96984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12362508-3C30-4BB6-9FFC-08FA3A65480D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7232073" y="5140038"/>
+          <a:ext cx="997528" cy="1163782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120617</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>184999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="圖片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38297240-D90F-4A3F-9AFB-14F57BC83B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8433344" y="4995426"/>
+          <a:ext cx="1722038" cy="1590373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>248948</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>105642</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="475900" cy="655885"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="文字方塊 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91DD9947-67F9-4CC3-B7DB-29C71E289C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6344948" y="4954733"/>
+          <a:ext cx="475900" cy="655885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="3600"/>
+            <a:t>G</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>110836</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="475900" cy="655885"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="文字方塊 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95E0ED5-C5F1-47E7-BB50-30887CAD06BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="4544291"/>
+          <a:ext cx="475900" cy="655885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="3600"/>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>136567</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24740</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="396775" cy="655885"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="文字方塊 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A970B658-CC14-43FF-82EC-AB360CA67D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7212281" y="6294911"/>
+          <a:ext cx="396775" cy="655885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="3600"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>526473</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="378822" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="文字方塊 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A342240-BD5B-4C90-A16A-AFC8FCE804BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="6137564"/>
+          <a:ext cx="378822" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400"/>
+            <a:t>G</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360219</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110837</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="374013" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="文字方塊 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0629CCA-1659-47FE-A48A-29D9EAC3D190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9227128" y="6123710"/>
+          <a:ext cx="374013" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400"/>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>148185</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110835</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="932470" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="文字方塊 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F22032-D2B1-4DA6-8113-918DD51F69F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9569276" y="6123708"/>
+          <a:ext cx="932470" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>379420</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>55117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>326079</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>58384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EB5878-37B8-47ED-9946-BF0E583BB5BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="17613880" y="3879566"/>
+          <a:ext cx="391194" cy="500841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>387040</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>191387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>329345</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0D7E0E-4E1D-48EE-BABD-C5DD41E2FDBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="17619323" y="2854231"/>
+          <a:ext cx="391193" cy="496487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>73672</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>74619</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9397</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線接點 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469492F2-E4E2-43B7-9D32-61A8339DDAA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17807490" y="992374"/>
+          <a:ext cx="947" cy="1926478"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>124694</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>181589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>49483</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="橢圓 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BB2018-5320-4CB0-8BFB-520CC59BBE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17304330" y="3091044"/>
+          <a:ext cx="1033153" cy="1035133"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>269474</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>97572</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768672" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="文字方塊 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53810A9F-E20A-4F3A-AEEA-AE5D27EF9879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17449110" y="3394954"/>
+          <a:ext cx="768672" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+            <a:t>PUMP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>470198</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>231752</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="橢圓 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12302F00-0DCC-4E8C-9B91-5D1571EB4E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17649834" y="721257"/>
+          <a:ext cx="315736" cy="270644"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>72774</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>83328</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12663</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線接點 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12632638-D902-4CDE-9986-23D3B93F2C3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17806592" y="4333204"/>
+          <a:ext cx="10554" cy="916477"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>181300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>82240</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6132</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD81E4B1-8285-487A-8093-4FFAB335A248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17360936" y="5246417"/>
+          <a:ext cx="455122" cy="384660"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>75708</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>122608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>85504</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2323</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線接點 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C36841-7BF8-4A82-A55E-BFCE60FF59FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17809526" y="5747553"/>
+          <a:ext cx="9796" cy="1625388"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>472371</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>108345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>189753</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109396</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線接點 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC48711-AC94-4476-8B40-47C95E3F7A7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17652007" y="7478963"/>
+          <a:ext cx="271564" cy="1051"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>410764</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>164960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>283175</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165748</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線接點 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A28B9B9-5A01-49D4-8381-CD764930C591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17590400" y="7341615"/>
+          <a:ext cx="426593" cy="788"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>540767</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>123186</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29745</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線接點 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A540CA6-7D00-4DAF-9D16-8F808BAB3BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17720403" y="7594327"/>
+          <a:ext cx="136601" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>473806</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>416688</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="圖片 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F7581B-8BF0-40FB-B23C-5C792B4DE033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18207624" y="2368446"/>
+          <a:ext cx="1051246" cy="798573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>126528</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1255728" cy="593304"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="文字方塊 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA32A5D4-4913-4F1B-A609-FA141E2BE0F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17306164" y="193964"/>
+          <a:ext cx="1255728" cy="593304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="3200" b="1"/>
+            <a:t>7~12V</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="3200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>360219</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19449</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="圖片 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EB7036-6B43-454E-B466-7907BCC62627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11998037" y="4051066"/>
+          <a:ext cx="3538503" cy="2668883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>401437</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>493223</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線單箭頭接點 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1D7A57-0BBD-46D0-8BE0-55E5031DAA34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15364346" y="5259874"/>
+          <a:ext cx="1754332" cy="5196"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>151808</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92378</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="680571" cy="655885"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="文字方塊 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A79E9F-7637-47B7-84B4-342F8AD38743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15668899" y="4553542"/>
+          <a:ext cx="680571" cy="655885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="3600"/>
+            <a:t>5V</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>91443</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>534789</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>55763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E0828A-0624-4BB3-9707-55EAD5C2C292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17271079" y="4904854"/>
+          <a:ext cx="997528" cy="1163782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>184350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>243843</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>143779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="圖片 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C0E357-0430-4612-ACD9-F6C65F1B4B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18472350" y="4760242"/>
+          <a:ext cx="1722038" cy="1590373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3535680" cy="1814599"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7288E75-2469-48E9-BEEA-76E6AED5E0D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1859280" y="525780"/>
+          <a:ext cx="3535680" cy="1814599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>if( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>條件 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>else</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7274AF-1563-4646-9C73-59CD91C54527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2156460" y="944880"/>
+          <a:ext cx="1172116" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>條件成立做的事</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC57739-7491-4D86-AD1D-82B74AF494B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194560" y="1805940"/>
+          <a:ext cx="1313180" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>條件不成立做的事</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1097280" cy="1814599"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文字方塊 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6510BC82-A460-42F3-98CB-C4C301372747}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="571500"/>
+          <a:ext cx="1097280" cy="1814599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>x=1;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>if(x==1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>     y=5;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>else</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t>     y=6;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文字方塊 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8F040B-BEA1-4FAD-A987-30364EFAA644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8892540" y="1181100"/>
+          <a:ext cx="889987" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>偵測冷水鍵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>227255</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149711</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文字方塊 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21777BF-CB15-4F5D-8A9F-049DF664D05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10070502" y="3538370"/>
+          <a:ext cx="748923" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>啟動幫浦</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>486335</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>44375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>126851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="菱形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA21D7DA-6F6D-42F4-86FB-141C2AA46367}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8689041" y="2482775"/>
+          <a:ext cx="1198581" cy="656217"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>181535</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文字方塊 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F420F1-87B5-4278-98FC-29F733567BA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7837394" y="3558988"/>
+          <a:ext cx="748923" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>關閉幫浦</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>532055</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>532055</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線單箭頭接點 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26573C8-DB32-4AB5-A626-D542B55481B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10375302" y="2805953"/>
+          <a:ext cx="0" cy="753035"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532055</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177949</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線單箭頭接點 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7525FBE9-2AAF-4E4D-8D04-A1D16B3D31F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8187914" y="2821193"/>
+          <a:ext cx="5827" cy="745415"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532055</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>471095</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177949</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線接點 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC96A4F9-E2FD-4D5F-98F4-37B7DE91D706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8187914" y="2809763"/>
+          <a:ext cx="485887" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>59615</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>164950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>545502</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線接點 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1B006F-27B3-4E61-9BD5-E303DE8E82B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9902862" y="2800574"/>
+          <a:ext cx="485887" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532055</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20171</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線接點 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74442A64-AF46-4EF7-8891-F45EC22796A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8187914" y="3819637"/>
+          <a:ext cx="5827" cy="530487"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>545502</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1121</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線接點 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07798662-2BAD-4A91-A797-01F8D05D06DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10381129" y="3800587"/>
+          <a:ext cx="7620" cy="530487"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532055</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>545502</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12551</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線接點 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AADE555-2A69-4126-9E17-43E5E8AE5EDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8187914" y="4338694"/>
+          <a:ext cx="2200835" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線單箭頭接點 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE3ADD9-6E25-40AD-A1F1-50FFAC6F38EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9326880" y="175260"/>
+          <a:ext cx="7620" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線單箭頭接點 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED75FBAF-84F7-4FED-A223-0917DD20CEC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9296401" y="1532965"/>
+          <a:ext cx="8964" cy="851647"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>143883</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131781</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1237455" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="文字方塊 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDF12B4-4BBE-40E1-8CAB-9D036C3F197A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9440283" y="2390887"/>
+          <a:ext cx="1237455" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>冷水鍵有無按下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線接點 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7E1C5C-483B-4131-BB2E-11B82FDEAA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9314329" y="4303059"/>
+          <a:ext cx="0" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>155986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4931</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線接點 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98D4544-AF92-4157-A460-B4557B19657F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7624483" y="5050715"/>
+          <a:ext cx="1676848" cy="9189"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線接點 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACED64C-B296-46E0-A040-E0B94C8A2440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7655859" y="717176"/>
+          <a:ext cx="10886" cy="4338918"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線單箭頭接點 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3742B155-1A8F-4F36-B9EA-7E46E42FD4DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7642412" y="738947"/>
+          <a:ext cx="1627094" cy="14088"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="文字方塊 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AB6CE6-B7EB-4469-8184-FF42C2CE16AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10300447" y="2832847"/>
+          <a:ext cx="325730" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="文字方塊 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873CBCA0-3A51-4D4D-90B9-24593266887E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8148917" y="2841812"/>
+          <a:ext cx="325730" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>否</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3437,10 +7630,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:R14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B66C25B-E9DC-4F2F-82BD-EEC7FF5305C3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAAB7E6-D1C5-4163-8B6E-601D8518EFE8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3451,28 +7913,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAAB7E6-D1C5-4163-8B6E-601D8518EFE8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73A6051-291B-495D-A6CC-4CC1DF5BC627}">
   <dimension ref="A5:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3881,12 +8327,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B22903C-C901-40D4-A236-B1B88ADFF49B}">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3955,7 +8401,1970 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D67089-B82D-4DA2-B303-D23790FC11CB}">
+  <dimension ref="C1:AK44"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AK42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+    </row>
+    <row r="2" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+    </row>
+    <row r="3" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+    </row>
+    <row r="4" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+    </row>
+    <row r="5" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+    </row>
+    <row r="6" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+    </row>
+    <row r="7" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+    </row>
+    <row r="8" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+    </row>
+    <row r="9" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+    </row>
+    <row r="10" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+    </row>
+    <row r="11" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+    </row>
+    <row r="12" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+    </row>
+    <row r="13" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+    </row>
+    <row r="14" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+    </row>
+    <row r="15" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+    </row>
+    <row r="16" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+    </row>
+    <row r="17" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+    </row>
+    <row r="18" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+    </row>
+    <row r="19" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+    </row>
+    <row r="20" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+    </row>
+    <row r="21" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+    </row>
+    <row r="22" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+    </row>
+    <row r="23" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+    </row>
+    <row r="24" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+    </row>
+    <row r="25" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+    </row>
+    <row r="26" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+    </row>
+    <row r="27" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+    </row>
+    <row r="28" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+    </row>
+    <row r="29" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+    </row>
+    <row r="30" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+    </row>
+    <row r="31" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+    </row>
+    <row r="32" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+    </row>
+    <row r="33" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+    </row>
+    <row r="34" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+    </row>
+    <row r="35" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+    </row>
+    <row r="36" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+    </row>
+    <row r="37" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+    </row>
+    <row r="38" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+    </row>
+    <row r="39" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+    </row>
+    <row r="40" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+    </row>
+    <row r="41" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+    </row>
+    <row r="42" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+    </row>
+    <row r="43" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFB432E-31AE-4E0C-850F-6A854DB09FDB}">
+  <dimension ref="C1:U31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:U29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+    </row>
+    <row r="18" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+    </row>
+    <row r="19" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+    </row>
+    <row r="20" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+    </row>
+    <row r="21" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+    </row>
+    <row r="22" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+    </row>
+    <row r="23" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+    </row>
+    <row r="24" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+    </row>
+    <row r="25" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+    </row>
+    <row r="26" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+    </row>
+    <row r="27" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+    </row>
+    <row r="28" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+    </row>
+    <row r="29" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+    </row>
+    <row r="30" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+    </row>
+    <row r="31" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEA86AE-8FC0-4594-8996-1ED06B6243B2}">
   <dimension ref="A4:C8"/>
   <sheetViews>
